--- a/Költségvetési táblázat.xlsx
+++ b/Költségvetési táblázat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alboke\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\kurvafontos genya 12.be\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EF6F5D-EF3B-4673-ACF9-AB64159F99DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2432D03-7484-4827-BD38-C07CF4D9E311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>180db</t>
   </si>
@@ -73,39 +73,21 @@
     <t>Költségvetés:</t>
   </si>
   <si>
-    <t>Eszközök</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>https://printershop.hu/index.php?route=product/product&amp;product_id=33949&amp;from=argep</t>
   </si>
   <si>
     <t>https://www.emag.hu/interaktiv-tabla-samsung-13-qbr-tm-fhd-1920-x-1080-hdmi-rs232-wi-fi-rj45-erintokepernyo-fekete-lh13qbrtmgcxen/pd/D1YY4SYBM/</t>
   </si>
   <si>
-    <t>1225358 Ft.</t>
-  </si>
-  <si>
     <t>318.808 Ft.</t>
   </si>
   <si>
-    <t>6 126 790 Ft.</t>
-  </si>
-  <si>
-    <t>2 231 656 Ft.</t>
-  </si>
-  <si>
     <t>http://computerimperium.hu/images/DELL_Optiplex_7040_SFF_29.jpg</t>
   </si>
   <si>
     <t>44.990 Ft.</t>
   </si>
   <si>
-    <t>269 940 Ft.</t>
-  </si>
-  <si>
     <t>https://www.emag.hu/mrg-x2-usb-vezetekes-optikai-eger-6000-dpi-3-gomb-usb-3-0-hosszu-vezetekes-ergonomikus-laptop-pc-machez-fekete-1069/pd/DW22VJYBM/</t>
   </si>
   <si>
@@ -130,9 +112,6 @@
     <t>46.899 Ft</t>
   </si>
   <si>
-    <t>1.172.475Ft.</t>
-  </si>
-  <si>
     <t>Egység ár:</t>
   </si>
   <si>
@@ -145,30 +124,6 @@
     <t>Végösszeg:</t>
   </si>
   <si>
-    <t>Interaktí táblák</t>
-  </si>
-  <si>
-    <t>Számítógépek</t>
-  </si>
-  <si>
-    <t>Egerek</t>
-  </si>
-  <si>
-    <t>Billenytűzetek</t>
-  </si>
-  <si>
-    <t>Monitorok</t>
-  </si>
-  <si>
-    <t>Routerek</t>
-  </si>
-  <si>
-    <t>Switch-ek</t>
-  </si>
-  <si>
-    <t>Accespoint-ok</t>
-  </si>
-  <si>
     <t>https://www.pcx.hu/tp-link-tl-sg3428-jetstream-24xgbe-lan-4xgbe-sfp-port-l2-menedzselheto-switch-639979</t>
   </si>
   <si>
@@ -184,6 +139,9 @@
     <t>10.305.566 Ft.</t>
   </si>
   <si>
+    <t>1.172.475 Ft.</t>
+  </si>
+  <si>
     <t>193.998 Ft.</t>
   </si>
   <si>
@@ -196,14 +154,62 @@
     <t>12.540 Ft.</t>
   </si>
   <si>
-    <t>10 128 Ft.</t>
+    <t>10.128 Ft.</t>
+  </si>
+  <si>
+    <t>269.940 Ft.</t>
+  </si>
+  <si>
+    <t>2.231.656 Ft.</t>
+  </si>
+  <si>
+    <t>6.126.790 Ft.</t>
+  </si>
+  <si>
+    <t>1.225.358 Ft.</t>
+  </si>
+  <si>
+    <t>Eszközök:</t>
+  </si>
+  <si>
+    <t>Link:</t>
+  </si>
+  <si>
+    <t>Nyomtató</t>
+  </si>
+  <si>
+    <t>Interaktí tábla</t>
+  </si>
+  <si>
+    <t>Számítógép</t>
+  </si>
+  <si>
+    <t>Egée</t>
+  </si>
+  <si>
+    <t>Billenytűzet</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Accespoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +237,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -253,13 +269,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -269,8 +282,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -663,7 +689,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,192 +697,200 @@
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="2" max="2" width="144.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
+      <c r="D4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>50</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>51</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>56</v>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>53</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>55</v>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="2">
         <v>6</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>53</v>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>57</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C12" s="2">
         <v>25</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
+      <c r="D12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Költségvetési táblázat.xlsx
+++ b/Költségvetési táblázat.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\kurvafontos genya 12.be\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2432D03-7484-4827-BD38-C07CF4D9E311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feljegyzés" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>180db</t>
   </si>
@@ -91,27 +90,15 @@
     <t>https://www.emag.hu/mrg-x2-usb-vezetekes-optikai-eger-6000-dpi-3-gomb-usb-3-0-hosszu-vezetekes-ergonomikus-laptop-pc-machez-fekete-1069/pd/DW22VJYBM/</t>
   </si>
   <si>
-    <t>1.688 Ft</t>
-  </si>
-  <si>
     <t>https://www.emag.hu/tavtarto-billentyuzet-fekete-spkb-169/pd/DC7RW7BBM/</t>
   </si>
   <si>
-    <t>2.090 Ft</t>
-  </si>
-  <si>
     <t>https://www.emag.hu/acer-ek251qebi-zeroframe-monitor-24-5-ips-freesync-100hz-1920x1080-fhd-1ms-hdmi-vga-e-energiaosztaly-um-ke1ee-e01/pd/D726WXYBM/</t>
   </si>
   <si>
-    <t>34.990 Ft</t>
-  </si>
-  <si>
     <t>https://www.pcx.hu/ubiquiti-unifi-u6-2x2-wi-fi-6-belteri-access-point-279985</t>
   </si>
   <si>
-    <t>46.899 Ft</t>
-  </si>
-  <si>
     <t>Egység ár:</t>
   </si>
   <si>
@@ -127,18 +114,9 @@
     <t>https://www.pcx.hu/tp-link-tl-sg3428-jetstream-24xgbe-lan-4xgbe-sfp-port-l2-menedzselheto-switch-639979</t>
   </si>
   <si>
-    <t>81.999Ft</t>
-  </si>
-  <si>
     <t>https://www.pcx.hu/mikrotik-vezetekes-router-routerboard-7x1000mbps-1x2-5gbit-1x10gbit-sfp-rackes-rb5009ug-s-in-449002</t>
   </si>
   <si>
-    <t>78.099Ft</t>
-  </si>
-  <si>
-    <t>10.305.566 Ft.</t>
-  </si>
-  <si>
     <t>1.172.475 Ft.</t>
   </si>
   <si>
@@ -202,13 +180,40 @@
     <t>Accespoint</t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
+    <t>Rack szekrény</t>
+  </si>
+  <si>
+    <t>https://ipon.hu/shop/termek/lanberg-wf01-6622-10b/1373766?aku=9a6a3cf85308258c0a45ed35cf45651e</t>
+  </si>
+  <si>
+    <t>98.290 Ft.</t>
+  </si>
+  <si>
+    <t>1.688 Ft.</t>
+  </si>
+  <si>
+    <t>2.090 Ft.</t>
+  </si>
+  <si>
+    <t>34.990 Ft.</t>
+  </si>
+  <si>
+    <t>78.099Ft.</t>
+  </si>
+  <si>
+    <t>81.999Ft.</t>
+  </si>
+  <si>
+    <t>46.899 Ft.</t>
+  </si>
+  <si>
+    <t>10.403.856 Ft.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,7 +616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -685,11 +690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,24 +713,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -734,15 +739,15 @@
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
@@ -754,12 +759,12 @@
         <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
@@ -771,12 +776,12 @@
         <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>20</v>
@@ -785,108 +790,120 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>58</v>
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D15" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.3">
@@ -894,16 +911,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B12" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>